--- a/Assignment3_Data.xlsx
+++ b/Assignment3_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccm\Desktop\BCIT\COMP4560\assignments\Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2574DB16-A2D0-41D5-8217-35F7978DD2BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1B2C6-9D08-4866-9B75-40ED6A1689E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,7 +853,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -917,7 +917,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,20 +953,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2067,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="H271" sqref="H271"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2737,12 +2736,12 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
@@ -2767,7 +2766,7 @@
       <c r="C41" s="24">
         <v>300</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="29">
         <v>800</v>
       </c>
       <c r="E41" s="21"/>
@@ -2782,7 +2781,7 @@
       <c r="C42" s="24">
         <v>0</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="29">
         <v>0</v>
       </c>
       <c r="E42" s="21"/>
@@ -2799,7 +2798,7 @@
         <f>C42-C41</f>
         <v>-300</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="29">
         <f>D42-D41</f>
         <v>-800</v>
       </c>
@@ -2814,11 +2813,11 @@
         <v>-0.22792115291927589</v>
       </c>
       <c r="C44" s="28">
-        <f>C43/SQRT(B43^2 + C43^2 + D43^2)</f>
+        <f t="shared" ref="C44:D44" si="0">C43/SQRT($B43^2 + $C43^2 + $D43^2)</f>
         <v>-0.34188172937891387</v>
       </c>
-      <c r="D44" s="29">
-        <f>D43/SQRT(B43^2 + C43^2 + D43^2)</f>
+      <c r="D44" s="28">
+        <f t="shared" si="0"/>
         <v>-0.91168461167710357</v>
       </c>
       <c r="E44" s="21"/>
@@ -2827,12 +2826,12 @@
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
@@ -2857,7 +2856,7 @@
       <c r="C48" s="24">
         <v>0</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="29">
         <v>1</v>
       </c>
       <c r="E48" s="21"/>
@@ -2874,7 +2873,7 @@
         <f>C48 - SUMPRODUCT(B48:D48, B44:D44) * C44</f>
         <v>-0.31168831168831168</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="29">
         <f>D48 - SUMPRODUCT(B48:D48, B44:D44) * D44</f>
         <v>0.16883116883116889</v>
       </c>
@@ -2889,11 +2888,11 @@
         <v>-0.50571163299281108</v>
       </c>
       <c r="C50" s="28">
-        <f t="shared" ref="C50:D50" si="0">C49/SQRT($B49^2+$C49^2+$D49^2)</f>
+        <f t="shared" ref="C50:D50" si="1">C49/SQRT($B49^2+$C49^2+$D49^2)</f>
         <v>-0.75856744948921673</v>
       </c>
       <c r="D50" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41089070180665921</v>
       </c>
       <c r="E50" s="21"/>
@@ -2906,12 +2905,12 @@
       <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23"/>
@@ -2935,11 +2934,11 @@
         <v>-0.22792115291927589</v>
       </c>
       <c r="C54" s="24">
-        <f t="shared" ref="C54:D54" si="1">C44</f>
+        <f t="shared" ref="C54:D54" si="2">C44</f>
         <v>-0.34188172937891387</v>
       </c>
-      <c r="D54" s="30">
-        <f t="shared" si="1"/>
+      <c r="D54" s="29">
+        <f t="shared" si="2"/>
         <v>-0.91168461167710357</v>
       </c>
       <c r="E54" s="21"/>
@@ -2953,11 +2952,11 @@
         <v>-0.50571163299281108</v>
       </c>
       <c r="C55" s="24">
-        <f t="shared" ref="C55:D55" si="2">C50</f>
+        <f t="shared" ref="C55:D55" si="3">C50</f>
         <v>-0.75856744948921673</v>
       </c>
-      <c r="D55" s="30">
-        <f t="shared" si="2"/>
+      <c r="D55" s="29">
+        <f t="shared" si="3"/>
         <v>0.41089070180665921</v>
       </c>
       <c r="E55" s="21"/>
@@ -2988,13 +2987,13 @@
       <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="22"/>
@@ -3003,67 +3002,67 @@
       <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="31">
-        <v>1</v>
-      </c>
-      <c r="C60" s="32">
-        <v>0</v>
-      </c>
-      <c r="D60" s="32">
-        <v>0</v>
-      </c>
-      <c r="E60" s="33">
+      <c r="B60" s="30">
+        <v>1</v>
+      </c>
+      <c r="C60" s="31">
+        <v>0</v>
+      </c>
+      <c r="D60" s="31">
+        <v>0</v>
+      </c>
+      <c r="E60" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
-      <c r="B61" s="34">
-        <v>0</v>
-      </c>
-      <c r="C61" s="35">
-        <v>1</v>
-      </c>
-      <c r="D61" s="35">
-        <v>0</v>
-      </c>
-      <c r="E61" s="36">
+      <c r="A61" s="42"/>
+      <c r="B61" s="33">
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <v>1</v>
+      </c>
+      <c r="D61" s="34">
+        <v>0</v>
+      </c>
+      <c r="E61" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="45"/>
-      <c r="B62" s="34">
-        <v>0</v>
-      </c>
-      <c r="C62" s="35">
-        <v>0</v>
-      </c>
-      <c r="D62" s="35">
-        <v>1</v>
-      </c>
-      <c r="E62" s="36">
+      <c r="A62" s="42"/>
+      <c r="B62" s="33">
+        <v>0</v>
+      </c>
+      <c r="C62" s="34">
+        <v>0</v>
+      </c>
+      <c r="D62" s="34">
+        <v>1</v>
+      </c>
+      <c r="E62" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="45"/>
-      <c r="B63" s="37">
+      <c r="A63" s="42"/>
+      <c r="B63" s="36">
         <f>-B41</f>
         <v>-200</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="37">
         <f>-C41</f>
         <v>-300</v>
       </c>
-      <c r="D63" s="38">
+      <c r="D63" s="37">
         <f>-D41</f>
         <v>-800</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3075,73 +3074,73 @@
       <c r="E64" s="21"/>
     </row>
     <row r="65" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B65" s="30">
         <f>B56</f>
         <v>-0.83205029433784372</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="31">
         <f>B55</f>
         <v>-0.50571163299281108</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D65" s="31">
         <f>B54</f>
         <v>-0.22792115291927589</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="46"/>
-      <c r="B66" s="34">
+      <c r="A66" s="43"/>
+      <c r="B66" s="33">
         <f>C56</f>
         <v>0.55470019622522904</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="34">
         <f>C55</f>
         <v>-0.75856744948921673</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="34">
         <f>C54</f>
         <v>-0.34188172937891387</v>
       </c>
-      <c r="E66" s="36">
+      <c r="E66" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="46"/>
-      <c r="B67" s="34">
+      <c r="A67" s="43"/>
+      <c r="B67" s="33">
         <f>D56</f>
         <v>0</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="34">
         <f>D55</f>
         <v>0.41089070180665921</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D67" s="34">
         <f>D54</f>
         <v>-0.91168461167710357</v>
       </c>
-      <c r="E67" s="36">
+      <c r="E67" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="46"/>
-      <c r="B68" s="37">
-        <v>0</v>
-      </c>
-      <c r="C68" s="38">
-        <v>0</v>
-      </c>
-      <c r="D68" s="38">
-        <v>0</v>
-      </c>
-      <c r="E68" s="39">
+      <c r="A68" s="43"/>
+      <c r="B68" s="36">
+        <v>0</v>
+      </c>
+      <c r="C68" s="37">
+        <v>0</v>
+      </c>
+      <c r="D68" s="37">
+        <v>0</v>
+      </c>
+      <c r="E68" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3153,65 +3152,65 @@
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70" s="30">
         <f t="array" ref="B70:E73">MMULT(B60:E63,B65:E68)</f>
         <v>-0.83205029433784372</v>
       </c>
-      <c r="C70" s="32">
+      <c r="C70" s="31">
         <v>-0.50571163299281108</v>
       </c>
-      <c r="D70" s="32">
+      <c r="D70" s="31">
         <v>-0.22792115291927589</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E70" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="46"/>
-      <c r="B71" s="34">
+      <c r="A71" s="43"/>
+      <c r="B71" s="33">
         <v>0.55470019622522904</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="34">
         <v>-0.75856744948921673</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="34">
         <v>-0.34188172937891387</v>
       </c>
-      <c r="E71" s="36">
+      <c r="E71" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="46"/>
-      <c r="B72" s="34">
-        <v>0</v>
-      </c>
-      <c r="C72" s="35">
+      <c r="A72" s="43"/>
+      <c r="B72" s="33">
+        <v>0</v>
+      </c>
+      <c r="C72" s="34">
         <v>0.41089070180665921</v>
       </c>
-      <c r="D72" s="35">
+      <c r="D72" s="34">
         <v>-0.91168461167710357</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="46"/>
-      <c r="B73" s="37">
+      <c r="A73" s="43"/>
+      <c r="B73" s="36">
         <v>2.8421709430404007E-14</v>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="37">
         <v>-1.7053025658242404E-13</v>
       </c>
-      <c r="D73" s="38">
+      <c r="D73" s="37">
         <v>877.49643873921218</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E73" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3220,70 +3219,70 @@
       <c r="A75" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="31">
+      <c r="B75" s="30">
         <f>B56</f>
         <v>-0.83205029433784372</v>
       </c>
-      <c r="C75" s="32">
+      <c r="C75" s="31">
         <f>C56</f>
         <v>0.55470019622522904</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="31">
         <f>D56</f>
         <v>0</v>
       </c>
-      <c r="E75" s="33">
+      <c r="E75" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="44"/>
-      <c r="B76" s="34">
+      <c r="B76" s="33">
         <f>B55</f>
         <v>-0.50571163299281108</v>
       </c>
-      <c r="C76" s="35">
-        <f t="shared" ref="C76:D76" si="3">C55</f>
+      <c r="C76" s="34">
+        <f t="shared" ref="C76:D76" si="4">C55</f>
         <v>-0.75856744948921673</v>
       </c>
-      <c r="D76" s="35">
-        <f t="shared" si="3"/>
+      <c r="D76" s="34">
+        <f t="shared" si="4"/>
         <v>0.41089070180665921</v>
       </c>
-      <c r="E76" s="36">
+      <c r="E76" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="44"/>
-      <c r="B77" s="34">
+      <c r="B77" s="33">
         <f>B54</f>
         <v>-0.22792115291927589</v>
       </c>
-      <c r="C77" s="35">
-        <f t="shared" ref="C77:D77" si="4">C54</f>
+      <c r="C77" s="34">
+        <f t="shared" ref="C77:D77" si="5">C54</f>
         <v>-0.34188172937891387</v>
       </c>
-      <c r="D77" s="35">
-        <f t="shared" si="4"/>
+      <c r="D77" s="34">
+        <f t="shared" si="5"/>
         <v>-0.91168461167710357</v>
       </c>
-      <c r="E77" s="36">
+      <c r="E77" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="44"/>
-      <c r="B78" s="37">
-        <v>0</v>
-      </c>
-      <c r="C78" s="38">
-        <v>0</v>
-      </c>
-      <c r="D78" s="38">
-        <v>0</v>
-      </c>
-      <c r="E78" s="39">
+      <c r="B78" s="36">
+        <v>0</v>
+      </c>
+      <c r="C78" s="37">
+        <v>0</v>
+      </c>
+      <c r="D78" s="37">
+        <v>0</v>
+      </c>
+      <c r="E78" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3292,73 +3291,73 @@
       <c r="A80" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="31">
-        <f t="array" ref="B80:E83">MMULT(B65:E68,B75:E78)</f>
-        <v>1</v>
-      </c>
-      <c r="C80" s="32">
-        <v>-8.3266726846886741E-17</v>
-      </c>
-      <c r="D80" s="32">
-        <v>-2.7755575615628914E-17</v>
-      </c>
-      <c r="E80" s="33">
+      <c r="B80" s="30">
+        <f t="array" ref="B80:E83">ROUND(MMULT(B75:E78,B65:E68), 10)</f>
+        <v>1</v>
+      </c>
+      <c r="C80" s="31">
+        <v>0</v>
+      </c>
+      <c r="D80" s="31">
+        <v>0</v>
+      </c>
+      <c r="E80" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="44"/>
-      <c r="B81" s="34">
-        <v>-8.3266726846886741E-17</v>
-      </c>
-      <c r="C81" s="35">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="D81" s="35">
-        <v>-1.1102230246251565E-16</v>
-      </c>
-      <c r="E81" s="36">
+      <c r="B81" s="33">
+        <v>0</v>
+      </c>
+      <c r="C81" s="34">
+        <v>1</v>
+      </c>
+      <c r="D81" s="34">
+        <v>0</v>
+      </c>
+      <c r="E81" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="44"/>
-      <c r="B82" s="34">
-        <v>-2.7755575615628914E-17</v>
-      </c>
-      <c r="C82" s="35">
-        <v>-1.1102230246251565E-16</v>
-      </c>
-      <c r="D82" s="35">
-        <v>1</v>
-      </c>
-      <c r="E82" s="36">
+      <c r="B82" s="33">
+        <v>0</v>
+      </c>
+      <c r="C82" s="34">
+        <v>0</v>
+      </c>
+      <c r="D82" s="34">
+        <v>1</v>
+      </c>
+      <c r="E82" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="44"/>
-      <c r="B83" s="37">
-        <v>0</v>
-      </c>
-      <c r="C83" s="38">
-        <v>0</v>
-      </c>
-      <c r="D83" s="38">
-        <v>0</v>
-      </c>
-      <c r="E83" s="39">
+      <c r="B83" s="36">
+        <v>0</v>
+      </c>
+      <c r="C83" s="37">
+        <v>0</v>
+      </c>
+      <c r="D83" s="37">
+        <v>0</v>
+      </c>
+      <c r="E83" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
     </row>
     <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="23"/>
@@ -3389,7 +3388,7 @@
       <c r="D87" s="24">
         <v>877.49643873921218</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3406,7 +3405,7 @@
       <c r="D88" s="24">
         <v>797.04027175870783</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3423,7 +3422,7 @@
       <c r="D89" s="24">
         <v>786.10005641858254</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3440,7 +3439,7 @@
       <c r="D90" s="24">
         <v>785.64421411274395</v>
       </c>
-      <c r="E90" s="30">
+      <c r="E90" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3457,7 +3456,7 @@
       <c r="D91" s="24">
         <v>574.70318708595414</v>
       </c>
-      <c r="E91" s="30">
+      <c r="E91" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3474,7 +3473,7 @@
       <c r="D92" s="24">
         <v>697.2108067800649</v>
       </c>
-      <c r="E92" s="30">
+      <c r="E92" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3491,7 +3490,7 @@
       <c r="D93" s="24">
         <v>660.17361943068261</v>
       </c>
-      <c r="E93" s="30">
+      <c r="E93" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3508,7 +3507,7 @@
       <c r="D94" s="24">
         <v>761.25665075038148</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3525,7 +3524,7 @@
       <c r="D95" s="24">
         <v>686.04267028702043</v>
       </c>
-      <c r="E95" s="30">
+      <c r="E95" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3542,7 +3541,7 @@
       <c r="D96" s="24">
         <v>682.39593184031196</v>
       </c>
-      <c r="E96" s="30">
+      <c r="E96" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3559,7 +3558,7 @@
       <c r="D97" s="24">
         <v>672.13947995894455</v>
       </c>
-      <c r="E97" s="30">
+      <c r="E97" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3576,7 +3575,7 @@
       <c r="D98" s="24">
         <v>544.50363432415008</v>
       </c>
-      <c r="E98" s="30">
+      <c r="E98" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3593,7 +3592,7 @@
       <c r="D99" s="24">
         <v>548.15037277085844</v>
       </c>
-      <c r="E99" s="30">
+      <c r="E99" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3610,7 +3609,7 @@
       <c r="D100" s="24">
         <v>675.78621840565302</v>
       </c>
-      <c r="E100" s="30">
+      <c r="E100" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3627,7 +3626,7 @@
       <c r="D101" s="24">
         <v>662.11094923049643</v>
       </c>
-      <c r="E101" s="30">
+      <c r="E101" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3644,7 +3643,7 @@
       <c r="D102" s="24">
         <v>534.47510359570197</v>
       </c>
-      <c r="E102" s="30">
+      <c r="E102" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3661,7 +3660,7 @@
       <c r="D103" s="24">
         <v>530.8283651489935</v>
       </c>
-      <c r="E103" s="30">
+      <c r="E103" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3678,7 +3677,7 @@
       <c r="D104" s="24">
         <v>658.46421078378808</v>
       </c>
-      <c r="E104" s="30">
+      <c r="E104" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3695,7 +3694,7 @@
       <c r="D105" s="24">
         <v>648.20775890242066</v>
       </c>
-      <c r="E105" s="30">
+      <c r="E105" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3712,7 +3711,7 @@
       <c r="D106" s="24">
         <v>651.85449734912902</v>
       </c>
-      <c r="E106" s="30">
+      <c r="E106" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3729,7 +3728,7 @@
       <c r="D107" s="24">
         <v>843.30826580132077</v>
       </c>
-      <c r="E107" s="30">
+      <c r="E107" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3746,7 +3745,7 @@
       <c r="D108" s="24">
         <v>830.54468123784136</v>
       </c>
-      <c r="E108" s="30">
+      <c r="E108" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3763,7 +3762,7 @@
       <c r="D109" s="24">
         <v>766.72675842044407</v>
       </c>
-      <c r="E109" s="30">
+      <c r="E109" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3780,7 +3779,7 @@
       <c r="D110" s="24">
         <v>775.84360453721513</v>
       </c>
-      <c r="E110" s="30">
+      <c r="E110" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3797,7 +3796,7 @@
       <c r="D111" s="24">
         <v>810.03177747510654</v>
       </c>
-      <c r="E111" s="30">
+      <c r="E111" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3814,7 +3813,7 @@
       <c r="D112" s="24">
         <v>795.44482368827289</v>
       </c>
-      <c r="E112" s="30">
+      <c r="E112" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3831,7 +3830,7 @@
       <c r="D113" s="24">
         <v>859.26274650567007</v>
       </c>
-      <c r="E113" s="30">
+      <c r="E113" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3848,7 +3847,7 @@
       <c r="D114" s="24">
         <v>845.58747733051359</v>
       </c>
-      <c r="E114" s="30">
+      <c r="E114" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3865,7 +3864,7 @@
       <c r="D115" s="24">
         <v>781.7695545131163</v>
       </c>
-      <c r="E115" s="30">
+      <c r="E115" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3882,7 +3881,7 @@
       <c r="D116" s="24">
         <v>787.23966218317889</v>
       </c>
-      <c r="E116" s="30">
+      <c r="E116" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3899,7 +3898,7 @@
       <c r="D117" s="24">
         <v>851.05758500057618</v>
       </c>
-      <c r="E117" s="30">
+      <c r="E117" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3916,7 +3915,7 @@
       <c r="D118" s="24">
         <v>803.99186692274566</v>
       </c>
-      <c r="E118" s="30">
+      <c r="E118" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3924,27 +3923,27 @@
       <c r="A119" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B119" s="40">
+      <c r="B119" s="39">
         <v>-31.617911184838036</v>
       </c>
-      <c r="C119" s="40">
+      <c r="C119" s="39">
         <v>-6.8903209995272086</v>
       </c>
-      <c r="D119" s="40">
+      <c r="D119" s="39">
         <v>797.61007464100601</v>
       </c>
-      <c r="E119" s="41">
+      <c r="E119" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
     </row>
     <row r="122" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="23"/>
@@ -3968,7 +3967,7 @@
       <c r="C123" s="24">
         <v>0</v>
       </c>
-      <c r="D123" s="30">
+      <c r="D123" s="29">
         <v>-1000</v>
       </c>
     </row>
@@ -3976,13 +3975,13 @@
       <c r="A124" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B124" s="40">
+      <c r="B124" s="39">
         <v>32</v>
       </c>
-      <c r="C124" s="40">
-        <v>0</v>
-      </c>
-      <c r="D124" s="41">
+      <c r="C124" s="39">
+        <v>0</v>
+      </c>
+      <c r="D124" s="40">
         <v>-1000</v>
       </c>
     </row>
@@ -3991,64 +3990,64 @@
       <c r="A126" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B126" s="31">
-        <v>1</v>
-      </c>
-      <c r="C126" s="32">
-        <v>0</v>
-      </c>
-      <c r="D126" s="32">
-        <v>0</v>
-      </c>
-      <c r="E126" s="33">
+      <c r="B126" s="30">
+        <v>1</v>
+      </c>
+      <c r="C126" s="31">
+        <v>0</v>
+      </c>
+      <c r="D126" s="31">
+        <v>0</v>
+      </c>
+      <c r="E126" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="44"/>
-      <c r="B127" s="34">
-        <v>0</v>
-      </c>
-      <c r="C127" s="35">
-        <v>1</v>
-      </c>
-      <c r="D127" s="35">
-        <v>0</v>
-      </c>
-      <c r="E127" s="36">
+      <c r="B127" s="33">
+        <v>0</v>
+      </c>
+      <c r="C127" s="34">
+        <v>1</v>
+      </c>
+      <c r="D127" s="34">
+        <v>0</v>
+      </c>
+      <c r="E127" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="44"/>
-      <c r="B128" s="34">
+      <c r="B128" s="33">
         <f>-B123/D123</f>
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="C128" s="35">
+      <c r="C128" s="34">
         <f>C123/D123</f>
         <v>0</v>
       </c>
-      <c r="D128" s="35">
-        <v>1</v>
-      </c>
-      <c r="E128" s="36">
+      <c r="D128" s="34">
+        <v>1</v>
+      </c>
+      <c r="E128" s="35">
         <f>-1/D123</f>
         <v>1E-3</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="44"/>
-      <c r="B129" s="37">
-        <v>0</v>
-      </c>
-      <c r="C129" s="38">
-        <v>0</v>
-      </c>
-      <c r="D129" s="38">
-        <v>0</v>
-      </c>
-      <c r="E129" s="39">
+      <c r="B129" s="36">
+        <v>0</v>
+      </c>
+      <c r="C129" s="37">
+        <v>0</v>
+      </c>
+      <c r="D129" s="37">
+        <v>0</v>
+      </c>
+      <c r="E129" s="38">
         <v>1</v>
       </c>
     </row>
@@ -4057,75 +4056,75 @@
       <c r="A131" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B131" s="31">
-        <v>1</v>
-      </c>
-      <c r="C131" s="32">
-        <v>0</v>
-      </c>
-      <c r="D131" s="32">
-        <v>0</v>
-      </c>
-      <c r="E131" s="33">
+      <c r="B131" s="30">
+        <v>1</v>
+      </c>
+      <c r="C131" s="31">
+        <v>0</v>
+      </c>
+      <c r="D131" s="31">
+        <v>0</v>
+      </c>
+      <c r="E131" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="44"/>
-      <c r="B132" s="34">
-        <v>0</v>
-      </c>
-      <c r="C132" s="35">
-        <v>1</v>
-      </c>
-      <c r="D132" s="35">
-        <v>0</v>
-      </c>
-      <c r="E132" s="36">
+      <c r="B132" s="33">
+        <v>0</v>
+      </c>
+      <c r="C132" s="34">
+        <v>1</v>
+      </c>
+      <c r="D132" s="34">
+        <v>0</v>
+      </c>
+      <c r="E132" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="44"/>
-      <c r="B133" s="34">
+      <c r="B133" s="33">
         <f>-B124/D124</f>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C133" s="35">
+      <c r="C133" s="34">
         <f>C124/D124</f>
         <v>0</v>
       </c>
-      <c r="D133" s="35">
-        <v>1</v>
-      </c>
-      <c r="E133" s="36">
+      <c r="D133" s="34">
+        <v>1</v>
+      </c>
+      <c r="E133" s="35">
         <f>-1/D124</f>
         <v>1E-3</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="44"/>
-      <c r="B134" s="37">
-        <v>0</v>
-      </c>
-      <c r="C134" s="38">
-        <v>0</v>
-      </c>
-      <c r="D134" s="38">
-        <v>0</v>
-      </c>
-      <c r="E134" s="39">
+      <c r="B134" s="36">
+        <v>0</v>
+      </c>
+      <c r="C134" s="37">
+        <v>0</v>
+      </c>
+      <c r="D134" s="37">
+        <v>0</v>
+      </c>
+      <c r="E134" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A137" s="42" t="s">
+      <c r="A137" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B137" s="42"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="42"/>
-      <c r="E137" s="42"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
     </row>
     <row r="138" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="23"/>
@@ -4156,7 +4155,7 @@
       <c r="D139" s="24">
         <v>877.49643873921218</v>
       </c>
-      <c r="E139" s="30">
+      <c r="E139" s="29">
         <v>1.8774964387392123</v>
       </c>
     </row>
@@ -4173,7 +4172,7 @@
       <c r="D140" s="24">
         <v>797.04027175870783</v>
       </c>
-      <c r="E140" s="30">
+      <c r="E140" s="29">
         <v>1.797040271758708</v>
       </c>
     </row>
@@ -4190,7 +4189,7 @@
       <c r="D141" s="24">
         <v>786.10005641858254</v>
       </c>
-      <c r="E141" s="30">
+      <c r="E141" s="29">
         <v>1.7861000564185825</v>
       </c>
     </row>
@@ -4207,7 +4206,7 @@
       <c r="D142" s="24">
         <v>785.64421411274395</v>
       </c>
-      <c r="E142" s="30">
+      <c r="E142" s="29">
         <v>1.785644214112744</v>
       </c>
     </row>
@@ -4224,7 +4223,7 @@
       <c r="D143" s="24">
         <v>574.70318708595414</v>
       </c>
-      <c r="E143" s="30">
+      <c r="E143" s="29">
         <v>1.5747031870859542</v>
       </c>
     </row>
@@ -4241,7 +4240,7 @@
       <c r="D144" s="24">
         <v>697.2108067800649</v>
       </c>
-      <c r="E144" s="30">
+      <c r="E144" s="29">
         <v>1.6972108067800649</v>
       </c>
     </row>
@@ -4258,7 +4257,7 @@
       <c r="D145" s="24">
         <v>660.17361943068261</v>
       </c>
-      <c r="E145" s="30">
+      <c r="E145" s="29">
         <v>1.6601736194306826</v>
       </c>
     </row>
@@ -4275,7 +4274,7 @@
       <c r="D146" s="24">
         <v>761.25665075038148</v>
       </c>
-      <c r="E146" s="30">
+      <c r="E146" s="29">
         <v>1.7612566507503815</v>
       </c>
     </row>
@@ -4292,7 +4291,7 @@
       <c r="D147" s="24">
         <v>686.04267028702043</v>
       </c>
-      <c r="E147" s="30">
+      <c r="E147" s="29">
         <v>1.6860426702870206</v>
       </c>
     </row>
@@ -4309,7 +4308,7 @@
       <c r="D148" s="24">
         <v>682.39593184031196</v>
       </c>
-      <c r="E148" s="30">
+      <c r="E148" s="29">
         <v>1.6823959318403121</v>
       </c>
     </row>
@@ -4326,7 +4325,7 @@
       <c r="D149" s="24">
         <v>672.13947995894455</v>
       </c>
-      <c r="E149" s="30">
+      <c r="E149" s="29">
         <v>1.6721394799589446</v>
       </c>
     </row>
@@ -4343,7 +4342,7 @@
       <c r="D150" s="24">
         <v>544.50363432415008</v>
       </c>
-      <c r="E150" s="30">
+      <c r="E150" s="29">
         <v>1.5445036343241501</v>
       </c>
     </row>
@@ -4360,7 +4359,7 @@
       <c r="D151" s="24">
         <v>548.15037277085844</v>
       </c>
-      <c r="E151" s="30">
+      <c r="E151" s="29">
         <v>1.5481503727708583</v>
       </c>
     </row>
@@ -4377,7 +4376,7 @@
       <c r="D152" s="24">
         <v>675.78621840565302</v>
       </c>
-      <c r="E152" s="30">
+      <c r="E152" s="29">
         <v>1.6757862184056531</v>
       </c>
     </row>
@@ -4394,7 +4393,7 @@
       <c r="D153" s="24">
         <v>662.11094923049643</v>
       </c>
-      <c r="E153" s="30">
+      <c r="E153" s="29">
         <v>1.6621109492304964</v>
       </c>
     </row>
@@ -4411,7 +4410,7 @@
       <c r="D154" s="24">
         <v>534.47510359570197</v>
       </c>
-      <c r="E154" s="30">
+      <c r="E154" s="29">
         <v>1.5344751035957018</v>
       </c>
     </row>
@@ -4428,7 +4427,7 @@
       <c r="D155" s="24">
         <v>530.8283651489935</v>
       </c>
-      <c r="E155" s="30">
+      <c r="E155" s="29">
         <v>1.5308283651489936</v>
       </c>
     </row>
@@ -4445,7 +4444,7 @@
       <c r="D156" s="24">
         <v>658.46421078378808</v>
       </c>
-      <c r="E156" s="30">
+      <c r="E156" s="29">
         <v>1.6584642107837881</v>
       </c>
     </row>
@@ -4462,7 +4461,7 @@
       <c r="D157" s="24">
         <v>648.20775890242066</v>
       </c>
-      <c r="E157" s="30">
+      <c r="E157" s="29">
         <v>1.6482077589024207</v>
       </c>
     </row>
@@ -4479,7 +4478,7 @@
       <c r="D158" s="24">
         <v>651.85449734912902</v>
       </c>
-      <c r="E158" s="30">
+      <c r="E158" s="29">
         <v>1.6518544973491291</v>
       </c>
     </row>
@@ -4496,7 +4495,7 @@
       <c r="D159" s="24">
         <v>843.30826580132077</v>
       </c>
-      <c r="E159" s="30">
+      <c r="E159" s="29">
         <v>1.8433082658013209</v>
       </c>
     </row>
@@ -4513,7 +4512,7 @@
       <c r="D160" s="24">
         <v>830.54468123784136</v>
       </c>
-      <c r="E160" s="30">
+      <c r="E160" s="29">
         <v>1.8305446812378414</v>
       </c>
     </row>
@@ -4530,7 +4529,7 @@
       <c r="D161" s="24">
         <v>766.72675842044407</v>
       </c>
-      <c r="E161" s="30">
+      <c r="E161" s="29">
         <v>1.766726758420444</v>
       </c>
     </row>
@@ -4547,7 +4546,7 @@
       <c r="D162" s="24">
         <v>775.84360453721513</v>
       </c>
-      <c r="E162" s="30">
+      <c r="E162" s="29">
         <v>1.775843604537215</v>
       </c>
     </row>
@@ -4564,7 +4563,7 @@
       <c r="D163" s="24">
         <v>810.03177747510654</v>
       </c>
-      <c r="E163" s="30">
+      <c r="E163" s="29">
         <v>1.8100317774751065</v>
       </c>
     </row>
@@ -4581,7 +4580,7 @@
       <c r="D164" s="24">
         <v>795.44482368827289</v>
       </c>
-      <c r="E164" s="30">
+      <c r="E164" s="29">
         <v>1.795444823688273</v>
       </c>
     </row>
@@ -4598,7 +4597,7 @@
       <c r="D165" s="24">
         <v>859.26274650567007</v>
       </c>
-      <c r="E165" s="30">
+      <c r="E165" s="29">
         <v>1.8592627465056701</v>
       </c>
     </row>
@@ -4615,7 +4614,7 @@
       <c r="D166" s="24">
         <v>845.58747733051359</v>
       </c>
-      <c r="E166" s="30">
+      <c r="E166" s="29">
         <v>1.8455874773305136</v>
       </c>
     </row>
@@ -4632,7 +4631,7 @@
       <c r="D167" s="24">
         <v>781.7695545131163</v>
       </c>
-      <c r="E167" s="30">
+      <c r="E167" s="29">
         <v>1.7817695545131165</v>
       </c>
     </row>
@@ -4649,7 +4648,7 @@
       <c r="D168" s="24">
         <v>787.23966218317889</v>
       </c>
-      <c r="E168" s="30">
+      <c r="E168" s="29">
         <v>1.787239662183179</v>
       </c>
     </row>
@@ -4666,7 +4665,7 @@
       <c r="D169" s="24">
         <v>851.05758500057618</v>
       </c>
-      <c r="E169" s="30">
+      <c r="E169" s="29">
         <v>1.8510575850005762</v>
       </c>
     </row>
@@ -4683,7 +4682,7 @@
       <c r="D170" s="24">
         <v>803.99186692274566</v>
       </c>
-      <c r="E170" s="30">
+      <c r="E170" s="29">
         <v>1.8039918669227457</v>
       </c>
     </row>
@@ -4691,27 +4690,27 @@
       <c r="A171" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="40">
+      <c r="B171" s="39">
         <v>-57.141433573350227</v>
       </c>
-      <c r="C171" s="40">
+      <c r="C171" s="39">
         <v>-6.8903209995272086</v>
       </c>
-      <c r="D171" s="40">
+      <c r="D171" s="39">
         <v>797.61007464100601</v>
       </c>
-      <c r="E171" s="41">
+      <c r="E171" s="40">
         <v>1.797610074641006</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A173" s="42" t="s">
+      <c r="A173" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B173" s="42"/>
-      <c r="C173" s="42"/>
-      <c r="D173" s="42"/>
-      <c r="E173" s="42"/>
+      <c r="B173" s="45"/>
+      <c r="C173" s="45"/>
+      <c r="D173" s="45"/>
+      <c r="E173" s="45"/>
     </row>
     <row r="174" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="23"/>
@@ -4742,7 +4741,7 @@
       <c r="D175" s="24">
         <v>877.49643873921218</v>
       </c>
-      <c r="E175" s="30">
+      <c r="E175" s="29">
         <v>1.8774964387392123</v>
       </c>
     </row>
@@ -4759,7 +4758,7 @@
       <c r="D176" s="24">
         <v>797.04027175870783</v>
       </c>
-      <c r="E176" s="30">
+      <c r="E176" s="29">
         <v>1.797040271758708</v>
       </c>
     </row>
@@ -4776,7 +4775,7 @@
       <c r="D177" s="24">
         <v>786.10005641858254</v>
       </c>
-      <c r="E177" s="30">
+      <c r="E177" s="29">
         <v>1.7861000564185825</v>
       </c>
     </row>
@@ -4793,7 +4792,7 @@
       <c r="D178" s="24">
         <v>785.64421411274395</v>
       </c>
-      <c r="E178" s="30">
+      <c r="E178" s="29">
         <v>1.785644214112744</v>
       </c>
     </row>
@@ -4810,7 +4809,7 @@
       <c r="D179" s="24">
         <v>574.70318708595414</v>
       </c>
-      <c r="E179" s="30">
+      <c r="E179" s="29">
         <v>1.5747031870859542</v>
       </c>
     </row>
@@ -4827,7 +4826,7 @@
       <c r="D180" s="24">
         <v>697.2108067800649</v>
       </c>
-      <c r="E180" s="30">
+      <c r="E180" s="29">
         <v>1.6972108067800649</v>
       </c>
     </row>
@@ -4844,7 +4843,7 @@
       <c r="D181" s="24">
         <v>660.17361943068261</v>
       </c>
-      <c r="E181" s="30">
+      <c r="E181" s="29">
         <v>1.6601736194306826</v>
       </c>
     </row>
@@ -4861,7 +4860,7 @@
       <c r="D182" s="24">
         <v>761.25665075038148</v>
       </c>
-      <c r="E182" s="30">
+      <c r="E182" s="29">
         <v>1.7612566507503815</v>
       </c>
     </row>
@@ -4878,7 +4877,7 @@
       <c r="D183" s="24">
         <v>686.04267028702043</v>
       </c>
-      <c r="E183" s="30">
+      <c r="E183" s="29">
         <v>1.6860426702870206</v>
       </c>
     </row>
@@ -4895,7 +4894,7 @@
       <c r="D184" s="24">
         <v>682.39593184031196</v>
       </c>
-      <c r="E184" s="30">
+      <c r="E184" s="29">
         <v>1.6823959318403121</v>
       </c>
     </row>
@@ -4912,7 +4911,7 @@
       <c r="D185" s="24">
         <v>672.13947995894455</v>
       </c>
-      <c r="E185" s="30">
+      <c r="E185" s="29">
         <v>1.6721394799589446</v>
       </c>
     </row>
@@ -4929,7 +4928,7 @@
       <c r="D186" s="24">
         <v>544.50363432415008</v>
       </c>
-      <c r="E186" s="30">
+      <c r="E186" s="29">
         <v>1.5445036343241501</v>
       </c>
     </row>
@@ -4946,7 +4945,7 @@
       <c r="D187" s="24">
         <v>548.15037277085844</v>
       </c>
-      <c r="E187" s="30">
+      <c r="E187" s="29">
         <v>1.5481503727708583</v>
       </c>
     </row>
@@ -4963,7 +4962,7 @@
       <c r="D188" s="24">
         <v>675.78621840565302</v>
       </c>
-      <c r="E188" s="30">
+      <c r="E188" s="29">
         <v>1.6757862184056531</v>
       </c>
     </row>
@@ -4980,7 +4979,7 @@
       <c r="D189" s="24">
         <v>662.11094923049643</v>
       </c>
-      <c r="E189" s="30">
+      <c r="E189" s="29">
         <v>1.6621109492304964</v>
       </c>
     </row>
@@ -4997,7 +4996,7 @@
       <c r="D190" s="24">
         <v>534.47510359570197</v>
       </c>
-      <c r="E190" s="30">
+      <c r="E190" s="29">
         <v>1.5344751035957018</v>
       </c>
     </row>
@@ -5014,7 +5013,7 @@
       <c r="D191" s="24">
         <v>530.8283651489935</v>
       </c>
-      <c r="E191" s="30">
+      <c r="E191" s="29">
         <v>1.5308283651489936</v>
       </c>
     </row>
@@ -5031,7 +5030,7 @@
       <c r="D192" s="24">
         <v>658.46421078378808</v>
       </c>
-      <c r="E192" s="30">
+      <c r="E192" s="29">
         <v>1.6584642107837881</v>
       </c>
     </row>
@@ -5048,7 +5047,7 @@
       <c r="D193" s="24">
         <v>648.20775890242066</v>
       </c>
-      <c r="E193" s="30">
+      <c r="E193" s="29">
         <v>1.6482077589024207</v>
       </c>
     </row>
@@ -5065,7 +5064,7 @@
       <c r="D194" s="24">
         <v>651.85449734912902</v>
       </c>
-      <c r="E194" s="30">
+      <c r="E194" s="29">
         <v>1.6518544973491291</v>
       </c>
     </row>
@@ -5082,7 +5081,7 @@
       <c r="D195" s="24">
         <v>843.30826580132077</v>
       </c>
-      <c r="E195" s="30">
+      <c r="E195" s="29">
         <v>1.8433082658013209</v>
       </c>
     </row>
@@ -5099,7 +5098,7 @@
       <c r="D196" s="24">
         <v>830.54468123784136</v>
       </c>
-      <c r="E196" s="30">
+      <c r="E196" s="29">
         <v>1.8305446812378414</v>
       </c>
     </row>
@@ -5116,7 +5115,7 @@
       <c r="D197" s="24">
         <v>766.72675842044407</v>
       </c>
-      <c r="E197" s="30">
+      <c r="E197" s="29">
         <v>1.766726758420444</v>
       </c>
     </row>
@@ -5133,7 +5132,7 @@
       <c r="D198" s="24">
         <v>775.84360453721513</v>
       </c>
-      <c r="E198" s="30">
+      <c r="E198" s="29">
         <v>1.775843604537215</v>
       </c>
     </row>
@@ -5150,7 +5149,7 @@
       <c r="D199" s="24">
         <v>810.03177747510654</v>
       </c>
-      <c r="E199" s="30">
+      <c r="E199" s="29">
         <v>1.8100317774751065</v>
       </c>
     </row>
@@ -5167,7 +5166,7 @@
       <c r="D200" s="24">
         <v>795.44482368827289</v>
       </c>
-      <c r="E200" s="30">
+      <c r="E200" s="29">
         <v>1.795444823688273</v>
       </c>
     </row>
@@ -5184,7 +5183,7 @@
       <c r="D201" s="24">
         <v>859.26274650567007</v>
       </c>
-      <c r="E201" s="30">
+      <c r="E201" s="29">
         <v>1.8592627465056701</v>
       </c>
     </row>
@@ -5201,7 +5200,7 @@
       <c r="D202" s="24">
         <v>845.58747733051359</v>
       </c>
-      <c r="E202" s="30">
+      <c r="E202" s="29">
         <v>1.8455874773305136</v>
       </c>
     </row>
@@ -5218,7 +5217,7 @@
       <c r="D203" s="24">
         <v>781.7695545131163</v>
       </c>
-      <c r="E203" s="30">
+      <c r="E203" s="29">
         <v>1.7817695545131165</v>
       </c>
     </row>
@@ -5235,7 +5234,7 @@
       <c r="D204" s="24">
         <v>787.23966218317889</v>
       </c>
-      <c r="E204" s="30">
+      <c r="E204" s="29">
         <v>1.787239662183179</v>
       </c>
     </row>
@@ -5252,7 +5251,7 @@
       <c r="D205" s="24">
         <v>851.05758500057618</v>
       </c>
-      <c r="E205" s="30">
+      <c r="E205" s="29">
         <v>1.8510575850005762</v>
       </c>
     </row>
@@ -5269,7 +5268,7 @@
       <c r="D206" s="24">
         <v>803.99186692274566</v>
       </c>
-      <c r="E206" s="30">
+      <c r="E206" s="29">
         <v>1.8039918669227457</v>
       </c>
     </row>
@@ -5277,27 +5276,27 @@
       <c r="A207" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="40">
+      <c r="B207" s="39">
         <v>-6.0943887963258447</v>
       </c>
-      <c r="C207" s="40">
+      <c r="C207" s="39">
         <v>-6.8903209995272086</v>
       </c>
-      <c r="D207" s="40">
+      <c r="D207" s="39">
         <v>797.61007464100601</v>
       </c>
-      <c r="E207" s="41">
+      <c r="E207" s="40">
         <v>1.797610074641006</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A209" s="42" t="s">
+      <c r="A209" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B209" s="42"/>
-      <c r="C209" s="42"/>
-      <c r="D209" s="42"/>
-      <c r="E209" s="42"/>
+      <c r="B209" s="45"/>
+      <c r="C209" s="45"/>
+      <c r="D209" s="45"/>
+      <c r="E209" s="45"/>
     </row>
     <row r="210" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="23"/>
@@ -5323,15 +5322,15 @@
         <v>-14.956026259368638</v>
       </c>
       <c r="C211" s="24">
-        <f t="shared" ref="C211:E211" si="5">C139/$E139</f>
+        <f t="shared" ref="C211:E211" si="6">C139/$E139</f>
         <v>-9.0828537974186276E-14</v>
       </c>
       <c r="D211" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>467.37582060527041</v>
       </c>
-      <c r="E211" s="30">
-        <f t="shared" si="5"/>
+      <c r="E211" s="29">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -5340,19 +5339,19 @@
         <v>6</v>
       </c>
       <c r="B212" s="24">
-        <f t="shared" ref="B212:E212" si="6">B140/$E140</f>
+        <f t="shared" ref="B212:E212" si="7">B140/$E140</f>
         <v>-17.897034115716128</v>
       </c>
       <c r="C212" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.5377948453145054</v>
       </c>
       <c r="D212" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>443.52944354367145</v>
       </c>
-      <c r="E212" s="30">
-        <f t="shared" si="6"/>
+      <c r="E212" s="29">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5361,19 +5360,19 @@
         <v>7</v>
       </c>
       <c r="B213" s="24">
-        <f t="shared" ref="B213:E213" si="7">B141/$E141</f>
+        <f t="shared" ref="B213:E213" si="8">B141/$E141</f>
         <v>-40.171331964562043</v>
       </c>
       <c r="C213" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-18.15618243173288</v>
       </c>
       <c r="D213" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>440.12095156350841</v>
       </c>
-      <c r="E213" s="30">
-        <f t="shared" si="7"/>
+      <c r="E213" s="29">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5382,19 +5381,19 @@
         <v>8</v>
       </c>
       <c r="B214" s="24">
-        <f t="shared" ref="B214:E214" si="8">B142/$E142</f>
+        <f t="shared" ref="B214:E214" si="9">B142/$E142</f>
         <v>-20.913471381037922</v>
       </c>
       <c r="C214" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-18.72723662830316</v>
       </c>
       <c r="D214" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>439.97802468344292</v>
       </c>
-      <c r="E214" s="30">
-        <f t="shared" si="8"/>
+      <c r="E214" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -5403,19 +5402,19 @@
         <v>9</v>
       </c>
       <c r="B215" s="24">
-        <f t="shared" ref="B215:E215" si="9">B143/$E143</f>
+        <f t="shared" ref="B215:E215" si="10">B143/$E143</f>
         <v>-7.803883251810686</v>
       </c>
       <c r="C215" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60.195041825311243</v>
       </c>
       <c r="D215" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>364.95969005401162</v>
       </c>
-      <c r="E215" s="30">
-        <f t="shared" si="9"/>
+      <c r="E215" s="29">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5424,19 +5423,19 @@
         <v>10</v>
       </c>
       <c r="B216" s="24">
-        <f t="shared" ref="B216:E216" si="10">B144/$E144</f>
+        <f t="shared" ref="B216:E216" si="11">B144/$E144</f>
         <v>-4.6479439581652038</v>
       </c>
       <c r="C216" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.252150239916457</v>
       </c>
       <c r="D216" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>410.79800104667481</v>
       </c>
-      <c r="E216" s="30">
-        <f t="shared" si="10"/>
+      <c r="E216" s="29">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5445,19 +5444,19 @@
         <v>11</v>
       </c>
       <c r="B217" s="24">
-        <f t="shared" ref="B217:E217" si="11">B145/$E145</f>
+        <f t="shared" ref="B217:E217" si="12">B145/$E145</f>
         <v>0.97408620672284574</v>
       </c>
       <c r="C217" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17.401057754803333</v>
       </c>
       <c r="D217" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>397.65336089190089</v>
       </c>
-      <c r="E217" s="30">
-        <f t="shared" si="11"/>
+      <c r="E217" s="29">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -5466,19 +5465,19 @@
         <v>12</v>
       </c>
       <c r="B218" s="24">
-        <f t="shared" ref="B218:E218" si="12">B146/$E146</f>
+        <f t="shared" ref="B218:E218" si="13">B146/$E146</f>
         <v>-20.13006834262999</v>
       </c>
       <c r="C218" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-49.709578910364613</v>
       </c>
       <c r="D218" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>432.22357765181408</v>
       </c>
-      <c r="E218" s="30">
-        <f t="shared" si="12"/>
+      <c r="E218" s="29">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5487,19 +5486,19 @@
         <v>13</v>
       </c>
       <c r="B219" s="24">
-        <f t="shared" ref="B219:E219" si="13">B147/$E147</f>
+        <f t="shared" ref="B219:E219" si="14">B147/$E147</f>
         <v>-13.02064641427339</v>
       </c>
       <c r="C219" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51.177261940060703</v>
       </c>
       <c r="D219" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>406.89520044604393</v>
       </c>
-      <c r="E219" s="30">
-        <f t="shared" si="13"/>
+      <c r="E219" s="29">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -5508,19 +5507,19 @@
         <v>14</v>
       </c>
       <c r="B220" s="24">
-        <f t="shared" ref="B220:E220" si="14">B148/$E148</f>
+        <f t="shared" ref="B220:E220" si="15">B148/$E148</f>
         <v>-20.89251041509992</v>
       </c>
       <c r="C220" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.478750793208278</v>
       </c>
       <c r="D220" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>405.60959458209322</v>
       </c>
-      <c r="E220" s="30">
-        <f t="shared" si="14"/>
+      <c r="E220" s="29">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -5529,19 +5528,19 @@
         <v>15</v>
       </c>
       <c r="B221" s="24">
-        <f t="shared" ref="B221:E221" si="15">B149/$E149</f>
+        <f t="shared" ref="B221:E221" si="16">B149/$E149</f>
         <v>-10.872455557224926</v>
       </c>
       <c r="C221" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.154314237110135</v>
       </c>
       <c r="D221" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>401.96376439568746</v>
       </c>
-      <c r="E221" s="30">
-        <f t="shared" si="15"/>
+      <c r="E221" s="29">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -5550,19 +5549,19 @@
         <v>16</v>
       </c>
       <c r="B222" s="24">
-        <f t="shared" ref="B222:E222" si="16">B150/$E150</f>
+        <f t="shared" ref="B222:E222" si="17">B150/$E150</f>
         <v>-9.126501749663765</v>
       </c>
       <c r="C222" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>73.138925353969782</v>
       </c>
       <c r="D222" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>352.54279900896194</v>
       </c>
-      <c r="E222" s="30">
-        <f t="shared" si="16"/>
+      <c r="E222" s="29">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -5571,19 +5570,19 @@
         <v>17</v>
       </c>
       <c r="B223" s="24">
-        <f t="shared" ref="B223:E223" si="17">B151/$E151</f>
+        <f t="shared" ref="B223:E223" si="18">B151/$E151</f>
         <v>-0.58121359380620674</v>
       </c>
       <c r="C223" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>78.193129218444042</v>
       </c>
       <c r="D223" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>354.06791382272928</v>
       </c>
-      <c r="E223" s="30">
-        <f t="shared" si="17"/>
+      <c r="E223" s="29">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -5592,19 +5591,19 @@
         <v>18</v>
       </c>
       <c r="B224" s="24">
-        <f t="shared" ref="B224:E224" si="18">B152/$E152</f>
+        <f t="shared" ref="B224:E224" si="19">B152/$E152</f>
         <v>-2.9742177417868554</v>
       </c>
       <c r="C224" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.910577851132089</v>
       </c>
       <c r="D224" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>403.26517248041199</v>
       </c>
-      <c r="E224" s="30">
-        <f t="shared" si="18"/>
+      <c r="E224" s="29">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -5613,19 +5612,19 @@
         <v>4</v>
       </c>
       <c r="B225" s="24">
-        <f t="shared" ref="B225:E225" si="19">B153/$E153</f>
+        <f t="shared" ref="B225:E225" si="20">B153/$E153</f>
         <v>10.613890347426929</v>
       </c>
       <c r="C225" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19.966973883733662</v>
       </c>
       <c r="D225" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>398.3554464502098</v>
       </c>
-      <c r="E225" s="30">
-        <f t="shared" si="19"/>
+      <c r="E225" s="29">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -5634,19 +5633,19 @@
         <v>19</v>
       </c>
       <c r="B226" s="24">
-        <f t="shared" ref="B226:E226" si="20">B154/$E154</f>
+        <f t="shared" ref="B226:E226" si="21">B154/$E154</f>
         <v>14.15846393974981</v>
       </c>
       <c r="C226" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>59.115996053322654</v>
       </c>
       <c r="D226" s="24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>348.31135568330706</v>
       </c>
-      <c r="E226" s="30">
-        <f t="shared" si="20"/>
+      <c r="E226" s="29">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -5655,19 +5654,19 @@
         <v>20</v>
       </c>
       <c r="B227" s="24">
-        <f t="shared" ref="B227:E227" si="21">B155/$E155</f>
+        <f t="shared" ref="B227:E227" si="22">B155/$E155</f>
         <v>5.5719514582959695</v>
       </c>
       <c r="C227" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>53.971196197529977</v>
       </c>
       <c r="D227" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>346.75890337146234</v>
       </c>
-      <c r="E227" s="30">
-        <f t="shared" si="21"/>
+      <c r="E227" s="29">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -5676,19 +5675,19 @@
         <v>21</v>
       </c>
       <c r="B228" s="24">
-        <f t="shared" ref="B228:E228" si="22">B156/$E156</f>
+        <f t="shared" ref="B228:E228" si="23">B156/$E156</f>
         <v>2.6804041066273441</v>
       </c>
       <c r="C228" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.132035785932214</v>
       </c>
       <c r="D228" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>397.03251146589332</v>
       </c>
-      <c r="E228" s="30">
-        <f t="shared" si="22"/>
+      <c r="E228" s="29">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -5697,19 +5696,19 @@
         <v>22</v>
       </c>
       <c r="B229" s="24">
-        <f t="shared" ref="B229:E229" si="23">B157/$E157</f>
+        <f t="shared" ref="B229:E229" si="24">B157/$E157</f>
         <v>12.992637919930935</v>
       </c>
       <c r="C229" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.4190664313758306</v>
       </c>
       <c r="D229" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>393.2803709976933</v>
       </c>
-      <c r="E229" s="30">
-        <f t="shared" si="23"/>
+      <c r="E229" s="29">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -5718,19 +5717,19 @@
         <v>23</v>
       </c>
       <c r="B230" s="24">
-        <f t="shared" ref="B230:E230" si="24">B158/$E158</f>
+        <f t="shared" ref="B230:E230" si="25">B158/$E158</f>
         <v>20.952617656635915</v>
       </c>
       <c r="C230" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.3142985336874267</v>
       </c>
       <c r="D230" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>394.61980361782179</v>
       </c>
-      <c r="E230" s="30">
-        <f t="shared" si="24"/>
+      <c r="E230" s="29">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -5739,19 +5738,19 @@
         <v>24</v>
       </c>
       <c r="B231" s="24">
-        <f t="shared" ref="B231:E231" si="25">B159/$E159</f>
+        <f t="shared" ref="B231:E231" si="26">B159/$E159</f>
         <v>15.452735521965485</v>
       </c>
       <c r="C231" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-41.152500835743545</v>
       </c>
       <c r="D231" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>457.49714328694705</v>
       </c>
-      <c r="E231" s="30">
-        <f t="shared" si="25"/>
+      <c r="E231" s="29">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -5760,19 +5759,19 @@
         <v>25</v>
       </c>
       <c r="B232" s="24">
-        <f t="shared" ref="B232:E232" si="26">B160/$E160</f>
+        <f t="shared" ref="B232:E232" si="27">B160/$E160</f>
         <v>-9.6704695828766845</v>
       </c>
       <c r="C232" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-56.910163113895429</v>
       </c>
       <c r="D232" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>453.71450899314556</v>
       </c>
-      <c r="E232" s="30">
-        <f t="shared" si="26"/>
+      <c r="E232" s="29">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
@@ -5781,19 +5780,19 @@
         <v>26</v>
       </c>
       <c r="B233" s="24">
-        <f t="shared" ref="B233:E233" si="27">B161/$E161</f>
+        <f t="shared" ref="B233:E233" si="28">B161/$E161</f>
         <v>-8.8638795191235573</v>
       </c>
       <c r="C233" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-42.685857850184952</v>
       </c>
       <c r="D233" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>433.98151681697635</v>
       </c>
-      <c r="E233" s="30">
-        <f t="shared" si="27"/>
+      <c r="E233" s="29">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -5802,19 +5801,19 @@
         <v>27</v>
       </c>
       <c r="B234" s="24">
-        <f t="shared" ref="B234:E234" si="28">B162/$E162</f>
+        <f t="shared" ref="B234:E234" si="29">B162/$E162</f>
         <v>9.7588658841625904</v>
       </c>
       <c r="C234" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-31.075811974288179</v>
       </c>
       <c r="D234" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>436.88734895064141</v>
       </c>
-      <c r="E234" s="30">
-        <f t="shared" si="28"/>
+      <c r="E234" s="29">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
@@ -5823,19 +5822,19 @@
         <v>28</v>
       </c>
       <c r="B235" s="24">
-        <f t="shared" ref="B235:E235" si="29">B163/$E163</f>
+        <f t="shared" ref="B235:E235" si="30">B163/$E163</f>
         <v>-21.675763971027006</v>
       </c>
       <c r="C235" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11.420221045740886</v>
       </c>
       <c r="D235" s="24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>447.52351177229372</v>
       </c>
-      <c r="E235" s="30">
-        <f t="shared" si="29"/>
+      <c r="E235" s="29">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -5844,19 +5843,19 @@
         <v>29</v>
       </c>
       <c r="B236" s="24">
-        <f t="shared" ref="B236:E236" si="30">B164/$E164</f>
+        <f t="shared" ref="B236:E236" si="31">B164/$E164</f>
         <v>-51.250952795098826</v>
       </c>
       <c r="C236" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-6.5134730728931238</v>
       </c>
       <c r="D236" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>443.03495891020424</v>
       </c>
-      <c r="E236" s="30">
-        <f t="shared" si="30"/>
+      <c r="E236" s="29">
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
@@ -5865,19 +5864,19 @@
         <v>30</v>
       </c>
       <c r="B237" s="24">
-        <f t="shared" ref="B237:E237" si="31">B165/$E165</f>
+        <f t="shared" ref="B237:E237" si="32">B165/$E165</f>
         <v>-50.590176999989751</v>
       </c>
       <c r="C237" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-21.759662917713214</v>
       </c>
       <c r="D237" s="24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>462.15240321497487</v>
       </c>
-      <c r="E237" s="30">
-        <f t="shared" si="31"/>
+      <c r="E237" s="29">
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -5886,19 +5885,19 @@
         <v>31</v>
       </c>
       <c r="B238" s="24">
-        <f t="shared" ref="B238:E238" si="32">B166/$E166</f>
+        <f t="shared" ref="B238:E238" si="33">B166/$E166</f>
         <v>-38.705732375210509</v>
       </c>
       <c r="C238" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-38.361567516376631</v>
       </c>
       <c r="D238" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>458.16710815224235</v>
       </c>
-      <c r="E238" s="30">
-        <f t="shared" si="32"/>
+      <c r="E238" s="29">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
@@ -5907,19 +5906,19 @@
         <v>32</v>
       </c>
       <c r="B239" s="24">
-        <f t="shared" ref="B239:E239" si="33">B167/$E167</f>
+        <f t="shared" ref="B239:E239" si="34">B167/$E167</f>
         <v>-38.945912655579164</v>
       </c>
       <c r="C239" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-23.592994608112839</v>
       </c>
       <c r="D239" s="24">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>438.76019350142133</v>
       </c>
-      <c r="E239" s="30">
-        <f t="shared" si="33"/>
+      <c r="E239" s="29">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -5928,19 +5927,19 @@
         <v>33</v>
       </c>
       <c r="B240" s="24">
-        <f t="shared" ref="B240:E240" si="34">B168/$E168</f>
+        <f t="shared" ref="B240:E240" si="35">B168/$E168</f>
         <v>-27.751441999214265</v>
       </c>
       <c r="C240" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-16.729821373914632</v>
       </c>
       <c r="D240" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>440.47794979076099</v>
       </c>
-      <c r="E240" s="30">
-        <f t="shared" si="34"/>
+      <c r="E240" s="29">
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -5949,19 +5948,19 @@
         <v>1</v>
       </c>
       <c r="B241" s="24">
-        <f t="shared" ref="B241:E241" si="35">B169/$E169</f>
+        <f t="shared" ref="B241:E241" si="36">B169/$E169</f>
         <v>-27.89791726220793</v>
       </c>
       <c r="C241" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-31.691369248865374</v>
       </c>
       <c r="D241" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>459.76829240583095</v>
       </c>
-      <c r="E241" s="30">
-        <f t="shared" si="35"/>
+      <c r="E241" s="29">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
     </row>
@@ -5970,19 +5969,19 @@
         <v>2</v>
       </c>
       <c r="B242" s="24">
-        <f t="shared" ref="B242:E242" si="36">B170/$E170</f>
+        <f t="shared" ref="B242:E242" si="37">B170/$E170</f>
         <v>-18.87383380668221</v>
       </c>
       <c r="C242" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>4.0297325379143834</v>
       </c>
       <c r="D242" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>445.67377584367784</v>
       </c>
-      <c r="E242" s="30">
-        <f t="shared" si="36"/>
+      <c r="E242" s="29">
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
@@ -5990,31 +5989,31 @@
       <c r="A243" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="40">
-        <f t="shared" ref="B243:E243" si="37">B171/$E171</f>
+      <c r="B243" s="39">
+        <f t="shared" ref="B243:E243" si="38">B171/$E171</f>
         <v>-31.787446220650342</v>
       </c>
-      <c r="C243" s="40">
-        <f t="shared" si="37"/>
+      <c r="C243" s="39">
+        <f t="shared" si="38"/>
         <v>-3.8330453843852923</v>
       </c>
-      <c r="D243" s="40">
-        <f t="shared" si="37"/>
+      <c r="D243" s="39">
+        <f t="shared" si="38"/>
         <v>443.70583247887822</v>
       </c>
-      <c r="E243" s="41">
-        <f t="shared" si="37"/>
+      <c r="E243" s="40">
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A245" s="42" t="s">
+      <c r="A245" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B245" s="42"/>
-      <c r="C245" s="42"/>
-      <c r="D245" s="42"/>
-      <c r="E245" s="42"/>
+      <c r="B245" s="45"/>
+      <c r="C245" s="45"/>
+      <c r="D245" s="45"/>
+      <c r="E245" s="45"/>
     </row>
     <row r="246" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="23"/>
@@ -6040,15 +6039,15 @@
         <v>14.95602625936867</v>
       </c>
       <c r="C247" s="24">
-        <f t="shared" ref="C247:E247" si="38">C175/$E175</f>
+        <f t="shared" ref="C247:E247" si="39">C175/$E175</f>
         <v>-9.0828537974186276E-14</v>
       </c>
       <c r="D247" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>467.37582060527041</v>
       </c>
-      <c r="E247" s="30">
-        <f t="shared" si="38"/>
+      <c r="E247" s="29">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -6057,19 +6056,19 @@
         <v>6</v>
       </c>
       <c r="B248" s="24">
-        <f t="shared" ref="B248:E248" si="39">B176/$E176</f>
+        <f t="shared" ref="B248:E248" si="40">B176/$E176</f>
         <v>10.488850271078846</v>
       </c>
       <c r="C248" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-4.5377948453145054</v>
       </c>
       <c r="D248" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>443.52944354367145</v>
       </c>
-      <c r="E248" s="30">
-        <f t="shared" si="39"/>
+      <c r="E248" s="29">
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
@@ -6078,19 +6077,19 @@
         <v>7</v>
       </c>
       <c r="B249" s="24">
-        <f t="shared" ref="B249:E249" si="40">B177/$E177</f>
+        <f t="shared" ref="B249:E249" si="41">B177/$E177</f>
         <v>-12.003591064497501</v>
       </c>
       <c r="C249" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-18.15618243173288</v>
       </c>
       <c r="D249" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>440.12095156350841</v>
       </c>
-      <c r="E249" s="30">
-        <f t="shared" si="40"/>
+      <c r="E249" s="29">
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -6099,19 +6098,19 @@
         <v>8</v>
       </c>
       <c r="B250" s="24">
-        <f t="shared" ref="B250:E250" si="41">B178/$E178</f>
+        <f t="shared" ref="B250:E250" si="42">B178/$E178</f>
         <v>7.2451221987024255</v>
       </c>
       <c r="C250" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-18.72723662830316</v>
       </c>
       <c r="D250" s="24">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>439.97802468344292</v>
       </c>
-      <c r="E250" s="30">
-        <f t="shared" si="41"/>
+      <c r="E250" s="29">
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
     </row>
@@ -6120,19 +6119,19 @@
         <v>9</v>
       </c>
       <c r="B251" s="24">
-        <f t="shared" ref="B251:E251" si="42">B179/$E179</f>
+        <f t="shared" ref="B251:E251" si="43">B179/$E179</f>
         <v>15.553536911646059</v>
       </c>
       <c r="C251" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>60.195041825311243</v>
       </c>
       <c r="D251" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>364.95969005401162</v>
       </c>
-      <c r="E251" s="30">
-        <f t="shared" si="42"/>
+      <c r="E251" s="29">
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
     </row>
@@ -6141,19 +6140,19 @@
         <v>10</v>
       </c>
       <c r="B252" s="24">
-        <f t="shared" ref="B252:E252" si="43">B180/$E180</f>
+        <f t="shared" ref="B252:E252" si="44">B180/$E180</f>
         <v>21.643128108821983</v>
       </c>
       <c r="C252" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>15.252150239916457</v>
       </c>
       <c r="D252" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>410.79800104667481</v>
       </c>
-      <c r="E252" s="30">
-        <f t="shared" si="43"/>
+      <c r="E252" s="29">
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
     </row>
@@ -6162,19 +6161,19 @@
         <v>11</v>
       </c>
       <c r="B253" s="24">
-        <f t="shared" ref="B253:E253" si="44">B181/$E181</f>
+        <f t="shared" ref="B253:E253" si="45">B181/$E181</f>
         <v>26.423901303804506</v>
       </c>
       <c r="C253" s="24">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>17.401057754803333</v>
       </c>
       <c r="D253" s="24">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>397.65336089190089</v>
       </c>
-      <c r="E253" s="30">
-        <f t="shared" si="44"/>
+      <c r="E253" s="29">
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
     </row>
@@ -6183,19 +6182,19 @@
         <v>12</v>
       </c>
       <c r="B254" s="24">
-        <f t="shared" ref="B254:E254" si="45">B182/$E182</f>
+        <f t="shared" ref="B254:E254" si="46">B182/$E182</f>
         <v>7.5322406270861118</v>
       </c>
       <c r="C254" s="24">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-49.709578910364613</v>
       </c>
       <c r="D254" s="24">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>432.22357765181408</v>
       </c>
-      <c r="E254" s="30">
-        <f t="shared" si="45"/>
+      <c r="E254" s="29">
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
     </row>
@@ -6204,19 +6203,19 @@
         <v>13</v>
       </c>
       <c r="B255" s="24">
-        <f t="shared" ref="B255:E255" si="46">B183/$E183</f>
+        <f t="shared" ref="B255:E255" si="47">B183/$E183</f>
         <v>13.020646414273424</v>
       </c>
       <c r="C255" s="24">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>51.177261940060703</v>
       </c>
       <c r="D255" s="24">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>406.89520044604393</v>
       </c>
-      <c r="E255" s="30">
-        <f t="shared" si="46"/>
+      <c r="E255" s="29">
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
     </row>
@@ -6225,19 +6224,19 @@
         <v>14</v>
       </c>
       <c r="B256" s="24">
-        <f t="shared" ref="B256:E256" si="47">B184/$E184</f>
+        <f t="shared" ref="B256:E256" si="48">B184/$E184</f>
         <v>5.0665036381540487</v>
       </c>
       <c r="C256" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>46.478750793208278</v>
       </c>
       <c r="D256" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>405.60959458209322</v>
       </c>
-      <c r="E256" s="30">
-        <f t="shared" si="47"/>
+      <c r="E256" s="29">
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
@@ -6246,19 +6245,19 @@
         <v>15</v>
       </c>
       <c r="B257" s="24">
-        <f t="shared" ref="B257:E257" si="48">B185/$E185</f>
+        <f t="shared" ref="B257:E257" si="49">B185/$E185</f>
         <v>14.853225364099069</v>
       </c>
       <c r="C257" s="24">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>33.154314237110135</v>
       </c>
       <c r="D257" s="24">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>401.96376439568746</v>
       </c>
-      <c r="E257" s="30">
-        <f t="shared" si="48"/>
+      <c r="E257" s="29">
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
     </row>
@@ -6267,19 +6266,19 @@
         <v>16</v>
       </c>
       <c r="B258" s="24">
-        <f t="shared" ref="B258:E258" si="49">B186/$E186</f>
+        <f t="shared" ref="B258:E258" si="50">B186/$E186</f>
         <v>13.436237386909799</v>
       </c>
       <c r="C258" s="24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>73.138925353969782</v>
       </c>
       <c r="D258" s="24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>352.54279900896194</v>
       </c>
-      <c r="E258" s="30">
-        <f t="shared" si="49"/>
+      <c r="E258" s="29">
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
     </row>
@@ -6288,19 +6287,19 @@
         <v>17</v>
       </c>
       <c r="B259" s="24">
-        <f t="shared" ref="B259:E259" si="50">B187/$E187</f>
+        <f t="shared" ref="B259:E259" si="51">B187/$E187</f>
         <v>22.079132890848463</v>
       </c>
       <c r="C259" s="24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>78.193129218444042</v>
       </c>
       <c r="D259" s="24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>354.06791382272928</v>
       </c>
-      <c r="E259" s="30">
-        <f t="shared" si="50"/>
+      <c r="E259" s="29">
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
     </row>
@@ -6309,19 +6308,19 @@
         <v>18</v>
       </c>
       <c r="B260" s="24">
-        <f t="shared" ref="B260:E260" si="51">B188/$E188</f>
+        <f t="shared" ref="B260:E260" si="52">B188/$E188</f>
         <v>22.834753296959512</v>
       </c>
       <c r="C260" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>37.910577851132089</v>
       </c>
       <c r="D260" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>403.26517248041199</v>
       </c>
-      <c r="E260" s="30">
-        <f t="shared" si="51"/>
+      <c r="E260" s="29">
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
     </row>
@@ -6330,19 +6329,19 @@
         <v>4</v>
       </c>
       <c r="B261" s="24">
-        <f t="shared" ref="B261:E261" si="52">B189/$E189</f>
+        <f t="shared" ref="B261:E261" si="53">B189/$E189</f>
         <v>36.108638920240359</v>
       </c>
       <c r="C261" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>19.966973883733662</v>
       </c>
       <c r="D261" s="24">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>398.3554464502098</v>
       </c>
-      <c r="E261" s="30">
-        <f t="shared" si="52"/>
+      <c r="E261" s="29">
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
     </row>
@@ -6351,19 +6350,19 @@
         <v>19</v>
       </c>
       <c r="B262" s="24">
-        <f t="shared" ref="B262:E262" si="53">B190/$E190</f>
+        <f t="shared" ref="B262:E262" si="54">B190/$E190</f>
         <v>36.450390703481467</v>
       </c>
       <c r="C262" s="24">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>59.115996053322654</v>
       </c>
       <c r="D262" s="24">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>348.31135568330706</v>
       </c>
-      <c r="E262" s="30">
-        <f t="shared" si="53"/>
+      <c r="E262" s="29">
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
     </row>
@@ -6372,19 +6371,19 @@
         <v>20</v>
       </c>
       <c r="B263" s="24">
-        <f t="shared" ref="B263:E263" si="54">B191/$E191</f>
+        <f t="shared" ref="B263:E263" si="55">B191/$E191</f>
         <v>27.764521274069562</v>
       </c>
       <c r="C263" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>53.971196197529977</v>
       </c>
       <c r="D263" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>346.75890337146234</v>
       </c>
-      <c r="E263" s="30">
-        <f t="shared" si="54"/>
+      <c r="E263" s="29">
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
     </row>
@@ -6393,19 +6392,19 @@
         <v>21</v>
       </c>
       <c r="B264" s="24">
-        <f t="shared" ref="B264:E264" si="55">B192/$E192</f>
+        <f t="shared" ref="B264:E264" si="56">B192/$E192</f>
         <v>28.090484840444518</v>
       </c>
       <c r="C264" s="24">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>15.132035785932214</v>
       </c>
       <c r="D264" s="24">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>397.03251146589332</v>
       </c>
-      <c r="E264" s="30">
-        <f t="shared" si="55"/>
+      <c r="E264" s="29">
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
     </row>
@@ -6414,19 +6413,19 @@
         <v>22</v>
       </c>
       <c r="B265" s="24">
-        <f t="shared" ref="B265:E265" si="56">B193/$E193</f>
+        <f t="shared" ref="B265:E265" si="57">B193/$E193</f>
         <v>38.162581663783307</v>
       </c>
       <c r="C265" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1.4190664313758306</v>
       </c>
       <c r="D265" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>393.2803709976933</v>
       </c>
-      <c r="E265" s="30">
-        <f t="shared" si="56"/>
+      <c r="E265" s="29">
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
     </row>
@@ -6435,19 +6434,19 @@
         <v>23</v>
       </c>
       <c r="B266" s="24">
-        <f t="shared" ref="B266:E266" si="57">B194/$E194</f>
+        <f t="shared" ref="B266:E266" si="58">B194/$E194</f>
         <v>46.208285088176503</v>
       </c>
       <c r="C266" s="24">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.3142985336874267</v>
       </c>
       <c r="D266" s="24">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>394.61980361782179</v>
       </c>
-      <c r="E266" s="30">
-        <f t="shared" si="57"/>
+      <c r="E266" s="29">
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
     </row>
@@ -6456,19 +6455,19 @@
         <v>24</v>
       </c>
       <c r="B267" s="24">
-        <f t="shared" ref="B267:E267" si="58">B195/$E195</f>
+        <f t="shared" ref="B267:E267" si="59">B195/$E195</f>
         <v>44.732552692330096</v>
       </c>
       <c r="C267" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-41.152500835743545</v>
       </c>
       <c r="D267" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>457.49714328694705</v>
       </c>
-      <c r="E267" s="30">
-        <f t="shared" si="58"/>
+      <c r="E267" s="29">
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
     </row>
@@ -6477,19 +6476,19 @@
         <v>25</v>
       </c>
       <c r="B268" s="24">
-        <f t="shared" ref="B268:E268" si="59">B196/$E196</f>
+        <f t="shared" ref="B268:E268" si="60">B196/$E196</f>
         <v>19.367258992684633</v>
       </c>
       <c r="C268" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-56.910163113895429</v>
       </c>
       <c r="D268" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>453.71450899314556</v>
       </c>
-      <c r="E268" s="30">
-        <f t="shared" si="59"/>
+      <c r="E268" s="29">
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
     </row>
@@ -6498,19 +6497,19 @@
         <v>26</v>
       </c>
       <c r="B269" s="24">
-        <f t="shared" ref="B269:E269" si="60">B197/$E197</f>
+        <f t="shared" ref="B269:E269" si="61">B197/$E197</f>
         <v>18.910937557162928</v>
       </c>
       <c r="C269" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-42.685857850184952</v>
       </c>
       <c r="D269" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>433.98151681697635</v>
       </c>
-      <c r="E269" s="30">
-        <f t="shared" si="60"/>
+      <c r="E269" s="29">
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
     </row>
@@ -6519,19 +6518,19 @@
         <v>27</v>
       </c>
       <c r="B270" s="24">
-        <f t="shared" ref="B270:E270" si="61">B198/$E198</f>
+        <f t="shared" ref="B270:E270" si="62">B198/$E198</f>
         <v>37.719656217003646</v>
       </c>
       <c r="C270" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-31.075811974288179</v>
       </c>
       <c r="D270" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>436.88734895064141</v>
       </c>
-      <c r="E270" s="30">
-        <f t="shared" si="61"/>
+      <c r="E270" s="29">
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
     </row>
@@ -6540,19 +6539,19 @@
         <v>28</v>
       </c>
       <c r="B271" s="24">
-        <f t="shared" ref="B271:E271" si="62">B199/$E199</f>
+        <f t="shared" ref="B271:E271" si="63">B199/$E199</f>
         <v>6.965740782399795</v>
       </c>
       <c r="C271" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>11.420221045740886</v>
       </c>
       <c r="D271" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>447.52351177229372</v>
       </c>
-      <c r="E271" s="30">
-        <f t="shared" si="62"/>
+      <c r="E271" s="29">
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
     </row>
@@ -6561,19 +6560,19 @@
         <v>29</v>
       </c>
       <c r="B272" s="24">
-        <f t="shared" ref="B272:E272" si="63">B200/$E200</f>
+        <f t="shared" ref="B272:E272" si="64">B200/$E200</f>
         <v>-22.896715424845752</v>
       </c>
       <c r="C272" s="24">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-6.5134730728931238</v>
       </c>
       <c r="D272" s="24">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>443.03495891020424</v>
       </c>
-      <c r="E272" s="30">
-        <f t="shared" si="63"/>
+      <c r="E272" s="29">
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
     </row>
@@ -6582,19 +6581,19 @@
         <v>30</v>
       </c>
       <c r="B273" s="24">
-        <f t="shared" ref="B273:E273" si="64">B201/$E201</f>
+        <f t="shared" ref="B273:E273" si="65">B201/$E201</f>
         <v>-21.012423194231353</v>
       </c>
       <c r="C273" s="24">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-21.759662917713214</v>
       </c>
       <c r="D273" s="24">
         <f>D201/$E201</f>
         <v>462.15240321497487</v>
       </c>
-      <c r="E273" s="30">
-        <f t="shared" si="64"/>
+      <c r="E273" s="29">
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
     </row>
@@ -6603,19 +6602,19 @@
         <v>31</v>
       </c>
       <c r="B274" s="24">
-        <f t="shared" ref="B274:E274" si="65">B202/$E202</f>
+        <f t="shared" ref="B274:E274" si="66">B202/$E202</f>
         <v>-9.3830374534669954</v>
       </c>
       <c r="C274" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-38.361567516376631</v>
       </c>
       <c r="D274" s="24">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>458.16710815224235</v>
       </c>
-      <c r="E274" s="30">
-        <f t="shared" si="65"/>
+      <c r="E274" s="29">
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
     </row>
@@ -6624,19 +6623,19 @@
         <v>32</v>
       </c>
       <c r="B275" s="24">
-        <f t="shared" ref="B275:E275" si="66">B203/$E203</f>
+        <f t="shared" ref="B275:E275" si="67">B203/$E203</f>
         <v>-10.865260271488198</v>
       </c>
       <c r="C275" s="24">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>-23.592994608112839</v>
       </c>
       <c r="D275" s="24">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>438.76019350142133</v>
       </c>
-      <c r="E275" s="30">
-        <f t="shared" si="66"/>
+      <c r="E275" s="29">
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
     </row>
@@ -6645,19 +6644,19 @@
         <v>33</v>
       </c>
       <c r="B276" s="24">
-        <f t="shared" ref="B276:E276" si="67">B204/$E204</f>
+        <f t="shared" ref="B276:E276" si="68">B204/$E204</f>
         <v>0.43914678739443791</v>
       </c>
       <c r="C276" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-16.729821373914632</v>
       </c>
       <c r="D276" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>440.47794979076099</v>
       </c>
-      <c r="E276" s="30">
-        <f t="shared" si="67"/>
+      <c r="E276" s="29">
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
     </row>
@@ -6666,19 +6665,19 @@
         <v>1</v>
       </c>
       <c r="B277" s="24">
-        <f t="shared" ref="B277:E277" si="68">B205/$E205</f>
+        <f t="shared" ref="B277:E277" si="69">B205/$E205</f>
         <v>1.5272534517652496</v>
       </c>
       <c r="C277" s="24">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-31.691369248865374</v>
       </c>
       <c r="D277" s="24">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>459.76829240583095</v>
       </c>
-      <c r="E277" s="30">
-        <f t="shared" si="68"/>
+      <c r="E277" s="29">
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
     </row>
@@ -6687,19 +6686,19 @@
         <v>2</v>
       </c>
       <c r="B278" s="24">
-        <f t="shared" ref="B278:E278" si="69">B206/$E206</f>
+        <f t="shared" ref="B278:E278" si="70">B206/$E206</f>
         <v>9.6492878473131718</v>
       </c>
       <c r="C278" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4.0297325379143834</v>
       </c>
       <c r="D278" s="24">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>445.67377584367784</v>
       </c>
-      <c r="E278" s="30">
-        <f t="shared" si="69"/>
+      <c r="E278" s="29">
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
     </row>
@@ -6707,35 +6706,25 @@
       <c r="A279" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B279" s="40">
-        <f t="shared" ref="B279:E279" si="70">B207/$E207</f>
+      <c r="B279" s="39">
+        <f t="shared" ref="B279:E279" si="71">B207/$E207</f>
         <v>-3.3902729420021371</v>
       </c>
-      <c r="C279" s="40">
-        <f t="shared" si="70"/>
+      <c r="C279" s="39">
+        <f t="shared" si="71"/>
         <v>-3.8330453843852923</v>
       </c>
-      <c r="D279" s="40">
-        <f t="shared" si="70"/>
+      <c r="D279" s="39">
+        <f t="shared" si="71"/>
         <v>443.70583247887822</v>
       </c>
-      <c r="E279" s="41">
-        <f t="shared" si="70"/>
+      <c r="E279" s="40">
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A80:A83"/>
     <mergeCell ref="A245:E245"/>
     <mergeCell ref="A121:E121"/>
     <mergeCell ref="A126:A129"/>
@@ -6743,6 +6732,16 @@
     <mergeCell ref="A137:E137"/>
     <mergeCell ref="A173:E173"/>
     <mergeCell ref="A209:E209"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A60:A63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
